--- a/Documentation/Gantt_Chart_Template.xlsx
+++ b/Documentation/Gantt_Chart_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D6A95-D30D-41C6-90BC-1AE44B7089FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8D5B5-DFFD-4817-8260-88134C1CC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,6 +911,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -923,13 +930,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1499,8 +1499,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1551,117 +1551,117 @@
       <c r="B3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <v>45420</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>45418</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>45425</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>45432</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>45439</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>45446</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>45453</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>45460</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>45467</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45418</v>
@@ -2935,13 +2935,13 @@
         <v>45443</v>
       </c>
       <c r="F17" s="67">
-        <f>E17+3</f>
-        <v>45446</v>
+        <f>E17+2</f>
+        <v>45445</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3016,13 +3016,13 @@
         <v>45446</v>
       </c>
       <c r="F18" s="67">
-        <f>E18+2</f>
-        <v>45448</v>
+        <f>E18+1</f>
+        <v>45447</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3097,13 +3097,13 @@
         <v>45446</v>
       </c>
       <c r="F19" s="67">
-        <f>E19+3</f>
-        <v>45449</v>
+        <f>E19+1</f>
+        <v>45447</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -4224,11 +4224,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4236,6 +4231,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4280,7 +4280,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
+    <ignoredError sqref="F22:F23 E23" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4410,70 +4410,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Has_Teacher_Only_SectionGroup xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <FolderType xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TeamsChannelId xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Invited_Teachers xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Invited_Students xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Templates xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Teachers xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Distribution_Groups xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <LMS_Mappings xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <CultureName xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <AppVersion xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <NotebookType xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Student_Groups xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Math_Settings xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <Owner xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Is_Collaboration_Space_Locked xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-    <_activity xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A6C24D38A47D4483BDD40956192BCF" ma:contentTypeVersion="39" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f07f3829e5d09499baf2c8502db3ed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="147d1278-e733-49aa-b400-ef7687d76ce3" xmlns:ns4="93d03e77-3551-4536-9208-3222abea9772" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae3c4703f3b8d4021d69f44788502e31" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4925,33 +4861,71 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4166818-70F8-4D06-AC57-4B3E04A31479}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="93d03e77-3551-4536-9208-3222abea9772"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="147d1278-e733-49aa-b400-ef7687d76ce3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FA432F-35E5-44AC-838D-D2937AF03E34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Has_Teacher_Only_SectionGroup xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <FolderType xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TeamsChannelId xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Invited_Teachers xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Invited_Students xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Templates xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Teachers xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Distribution_Groups xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <LMS_Mappings xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <CultureName xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <AppVersion xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <NotebookType xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Student_Groups xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Math_Settings xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <Owner xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="147d1278-e733-49aa-b400-ef7687d76ce3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Is_Collaboration_Space_Locked xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+    <_activity xmlns="147d1278-e733-49aa-b400-ef7687d76ce3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E51B8CD0-936E-4F4B-BD26-D0FCA6E1F434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4969,4 +4943,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FA432F-35E5-44AC-838D-D2937AF03E34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4166818-70F8-4D06-AC57-4B3E04A31479}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93d03e77-3551-4536-9208-3222abea9772"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="147d1278-e733-49aa-b400-ef7687d76ce3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>